--- a/data/trans_camb/POLIPATOLOGIA-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 14,55</t>
+          <t>5,66; 14,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 9,93</t>
+          <t>1,05; 10,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,5; 22,51</t>
+          <t>13,07; 22,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,76</t>
+          <t>3,83; 11,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 12,34</t>
+          <t>3,73; 12,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,35; 20,94</t>
+          <t>13,18; 20,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,95</t>
+          <t>6,41; 11,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 10,0</t>
+          <t>4,01; 10,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,73; 20,84</t>
+          <t>15,14; 20,96</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 39,94</t>
+          <t>13,76; 39,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 27,16</t>
+          <t>2,57; 27,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,9; 62,01</t>
+          <t>32,21; 61,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 22,44</t>
+          <t>6,67; 22,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 23,11</t>
+          <t>6,48; 23,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,55; 39,6</t>
+          <t>22,93; 38,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 25,65</t>
+          <t>13,03; 25,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 21,39</t>
+          <t>8,1; 22,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,67; 44,68</t>
+          <t>30,62; 45,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,63</t>
+          <t>2,18; 6,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,21</t>
+          <t>4,83; 9,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 20,39</t>
+          <t>14,24; 20,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,72</t>
+          <t>2,12; 7,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,8</t>
+          <t>4,37; 10,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,7; 34,11</t>
+          <t>18,14; 31,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,41</t>
+          <t>2,73; 6,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,95</t>
+          <t>5,36; 9,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,77; 27,04</t>
+          <t>17,68; 26,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 66,86</t>
+          <t>18,29; 67,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,71; 94,15</t>
+          <t>39,88; 99,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>118,67; 204,5</t>
+          <t>120,84; 207,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 41,36</t>
+          <t>9,74; 41,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 53,11</t>
+          <t>20,54; 54,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,47; 173,98</t>
+          <t>85,62; 159,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,91; 43,82</t>
+          <t>17,08; 45,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,06; 62,39</t>
+          <t>33,56; 63,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109,03; 173,6</t>
+          <t>109,92; 175,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,96</t>
+          <t>-4,12; 4,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 11,14</t>
+          <t>2,28; 11,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,34; 20,42</t>
+          <t>11,59; 20,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,65</t>
+          <t>-3,85; 7,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 6,56</t>
+          <t>-3,88; 6,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,89; 23,32</t>
+          <t>14,04; 23,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,13</t>
+          <t>-2,14; 4,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,91</t>
+          <t>0,93; 7,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,65; 21,28</t>
+          <t>14,52; 21,08</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 41,63</t>
+          <t>-32,57; 45,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,28; 117,87</t>
+          <t>15,51; 117,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,83; 225,44</t>
+          <t>84,86; 231,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 41,07</t>
+          <t>-18,02; 43,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 41,14</t>
+          <t>-18,71; 37,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,41; 150,98</t>
+          <t>64,13; 151,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 32,44</t>
+          <t>-13,48; 34,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,73; 60,59</t>
+          <t>5,76; 59,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,7; 163,31</t>
+          <t>86,31; 165,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,64</t>
+          <t>2,36; 6,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,13</t>
+          <t>2,12; 6,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,53; 15,13</t>
+          <t>10,31; 15,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,47</t>
+          <t>2,78; 7,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,89</t>
+          <t>0,43; 5,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,7; 20,08</t>
+          <t>11,94; 20,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,35</t>
+          <t>3,31; 6,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,95</t>
+          <t>1,85; 4,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,12</t>
+          <t>12,12; 17,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,62; 35,56</t>
+          <t>11,4; 34,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,17; 32,32</t>
+          <t>10,28; 31,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,04; 80,58</t>
+          <t>49,55; 80,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,13; 23,15</t>
+          <t>7,96; 23,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,83; 15,18</t>
+          <t>1,26; 16,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,94; 61,09</t>
+          <t>34,39; 59,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,01; 24,17</t>
+          <t>11,94; 25,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,69; 18,96</t>
+          <t>6,75; 19,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,32; 64,79</t>
+          <t>44,22; 64,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 14,44</t>
+          <t>5,66; 14,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 10,41</t>
+          <t>1,19; 10,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 22,77</t>
+          <t>12,75; 22,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 11,99</t>
+          <t>4,05; 11,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,49</t>
+          <t>3,73; 12,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,18; 20,73</t>
+          <t>12,89; 20,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 11,82</t>
+          <t>5,92; 11,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 10,32</t>
+          <t>4,23; 10,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,14; 20,96</t>
+          <t>14,95; 21,12</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 39,47</t>
+          <t>13,61; 40,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 27,99</t>
+          <t>3,03; 28,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,21; 61,35</t>
+          <t>32,22; 61,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 22,45</t>
+          <t>7,13; 21,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 23,26</t>
+          <t>6,73; 22,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,93; 38,8</t>
+          <t>22,42; 38,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,03; 25,37</t>
+          <t>12,35; 26,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 22,27</t>
+          <t>8,33; 22,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,62; 45,31</t>
+          <t>30,29; 45,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,67</t>
+          <t>2,01; 6,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,54</t>
+          <t>4,74; 9,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 20,27</t>
+          <t>14,58; 20,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,63</t>
+          <t>2,0; 8,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 10,01</t>
+          <t>4,25; 9,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 31,61</t>
+          <t>18,33; 31,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,51</t>
+          <t>2,64; 6,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,09</t>
+          <t>5,53; 9,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,68; 26,86</t>
+          <t>17,74; 26,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,29; 67,24</t>
+          <t>16,1; 66,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,88; 99,25</t>
+          <t>38,48; 96,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>120,84; 207,24</t>
+          <t>122,05; 203,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 41,64</t>
+          <t>9,29; 43,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,54; 54,52</t>
+          <t>19,97; 54,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,62; 159,98</t>
+          <t>85,69; 165,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 45,52</t>
+          <t>16,03; 44,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,56; 63,45</t>
+          <t>34,16; 64,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109,92; 175,31</t>
+          <t>110,98; 179,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 4,27</t>
+          <t>-4,03; 4,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 11,28</t>
+          <t>2,15; 11,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 20,81</t>
+          <t>11,33; 20,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 7,08</t>
+          <t>-3,92; 7,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,07</t>
+          <t>-4,19; 6,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,04; 23,83</t>
+          <t>13,49; 23,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,41</t>
+          <t>-2,42; 4,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,66</t>
+          <t>0,99; 7,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,52; 21,08</t>
+          <t>14,27; 21,05</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 45,48</t>
+          <t>-30,27; 43,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,51; 117,38</t>
+          <t>15,35; 118,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>84,86; 231,33</t>
+          <t>81,43; 221,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 43,73</t>
+          <t>-19,11; 43,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 37,92</t>
+          <t>-19,22; 40,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,13; 151,69</t>
+          <t>62,17; 144,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 34,03</t>
+          <t>-15,58; 33,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,76; 59,64</t>
+          <t>6,18; 62,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,31; 165,74</t>
+          <t>84,87; 162,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,5</t>
+          <t>2,49; 6,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,05</t>
+          <t>2,17; 6,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,31; 15,23</t>
+          <t>10,35; 15,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,65</t>
+          <t>2,75; 7,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,16</t>
+          <t>0,2; 5,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,94; 20,11</t>
+          <t>11,85; 19,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,65</t>
+          <t>3,4; 6,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,94</t>
+          <t>1,9; 5,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,12; 17,12</t>
+          <t>12,27; 17,47</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,4; 34,38</t>
+          <t>12,08; 35,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,28; 31,48</t>
+          <t>10,31; 32,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,55; 80,05</t>
+          <t>49,81; 82,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,96; 23,52</t>
+          <t>7,87; 23,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,26; 16,03</t>
+          <t>0,69; 15,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,39; 59,34</t>
+          <t>34,11; 59,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,94; 25,66</t>
+          <t>12,55; 25,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,75; 19,15</t>
+          <t>7,0; 19,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,22; 64,7</t>
+          <t>44,73; 66,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 14,77</t>
+          <t>5,34; 14,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,28</t>
+          <t>0,16; 9,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 22,79</t>
+          <t>12,5; 22,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,33</t>
+          <t>4,08; 11,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,12</t>
+          <t>4,44; 12,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 20,6</t>
+          <t>13,35; 20,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,95</t>
+          <t>6,19; 11,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 10,62</t>
+          <t>3,22; 10,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 21,12</t>
+          <t>14,73; 20,84</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 40,21</t>
+          <t>12,95; 39,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 28,04</t>
+          <t>0,35; 27,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,22; 61,78</t>
+          <t>30,9; 62,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 21,21</t>
+          <t>7,14; 22,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 22,68</t>
+          <t>7,84; 23,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,42; 38,6</t>
+          <t>23,55; 39,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,35; 26,14</t>
+          <t>12,56; 25,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 22,61</t>
+          <t>6,4; 21,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,29; 45,39</t>
+          <t>29,67; 44,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,7</t>
+          <t>2,26; 6,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,41</t>
+          <t>4,74; 9,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 20,3</t>
+          <t>14,62; 20,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 8,0</t>
+          <t>1,96; 7,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 9,94</t>
+          <t>4,01; 9,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,33; 31,72</t>
+          <t>18,7; 34,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,37</t>
+          <t>2,72; 6,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,06</t>
+          <t>5,29; 8,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 26,49</t>
+          <t>17,77; 27,04</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,1; 66,74</t>
+          <t>18,38; 66,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,48; 96,98</t>
+          <t>39,71; 94,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>122,05; 203,03</t>
+          <t>118,67; 204,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 43,42</t>
+          <t>9,02; 41,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,97; 54,05</t>
+          <t>18,88; 53,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,69; 165,17</t>
+          <t>88,47; 173,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 44,02</t>
+          <t>16,91; 43,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,16; 64,12</t>
+          <t>33,06; 62,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110,98; 179,82</t>
+          <t>109,03; 173,6</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 4,11</t>
+          <t>-4,54; 3,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 11,13</t>
+          <t>1,85; 11,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 20,89</t>
+          <t>11,34; 20,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 7,05</t>
+          <t>-3,98; 6,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 6,34</t>
+          <t>-3,77; 6,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,49; 23,01</t>
+          <t>13,89; 23,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,33</t>
+          <t>-2,49; 4,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,82</t>
+          <t>1,11; 7,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,27; 21,05</t>
+          <t>14,65; 21,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 43,48</t>
+          <t>-33,85; 41,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,35; 118,32</t>
+          <t>13,28; 117,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,43; 221,27</t>
+          <t>86,83; 225,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 43,94</t>
+          <t>-18,93; 41,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 40,21</t>
+          <t>-18,31; 41,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,17; 144,41</t>
+          <t>64,41; 150,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 33,55</t>
+          <t>-15,36; 32,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,18; 62,05</t>
+          <t>6,73; 60,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>84,87; 162,44</t>
+          <t>86,7; 163,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,61</t>
+          <t>2,41; 6,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,24</t>
+          <t>2,15; 6,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,35</t>
+          <t>10,53; 15,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,46</t>
+          <t>2,79; 7,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,03</t>
+          <t>0,29; 4,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,85; 19,69</t>
+          <t>11,7; 20,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,46</t>
+          <t>3,31; 6,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,05</t>
+          <t>1,89; 4,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,27; 17,47</t>
+          <t>12,16; 17,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,08; 35,13</t>
+          <t>11,62; 35,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,31; 32,98</t>
+          <t>10,17; 32,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,81; 82,06</t>
+          <t>50,04; 80,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,87; 23,29</t>
+          <t>8,13; 23,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 15,49</t>
+          <t>0,83; 15,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,11; 59,34</t>
+          <t>33,94; 61,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,55; 25,39</t>
+          <t>12,01; 24,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,0; 19,69</t>
+          <t>6,69; 18,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,73; 66,23</t>
+          <t>44,32; 64,79</t>
         </is>
       </c>
     </row>
